--- a/smart-survey/test_cases.xlsx
+++ b/smart-survey/test_cases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="9735" windowHeight="1725"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Inclusion" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A15:E16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>ID do TC</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Scenario 4 -  The system must validate the section title</t>
   </si>
   <si>
-    <t>what is the weigth (ton)?</t>
-  </si>
-  <si>
     <t>"Section Title is mandatory" warning</t>
   </si>
   <si>
@@ -139,13 +137,103 @@
   </si>
   <si>
     <t>"It is mandatory to add at least one Application Rule" warning</t>
+  </si>
+  <si>
+    <t>released by</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>release date</t>
+  </si>
+  <si>
+    <t>05/24/2018 22:35</t>
+  </si>
+  <si>
+    <t>smartSurvey successful printed in the desired format</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
+    <t>the system changes the smartSurvey status to closed. Now it lists also two new data: 1) closed by the user &lt;user description&gt; 2) closed date. No more changes can be made.</t>
+  </si>
+  <si>
+    <t>the system creates another smart survey identical to the cloned one, however with the title "TEST001 (1)". To see the replicated data, see CW1.</t>
+  </si>
+  <si>
+    <t>TEST006</t>
+  </si>
+  <si>
+    <t>CW7</t>
+  </si>
+  <si>
+    <t>stop type</t>
+  </si>
+  <si>
+    <t>no equals to</t>
+  </si>
+  <si>
+    <t>"No Permission" message is shown</t>
+  </si>
+  <si>
+    <t>(entity)</t>
+  </si>
+  <si>
+    <t>CW8</t>
+  </si>
+  <si>
+    <t>Scenario 7 -  The system must include a smartSurvey with AppRule = stop type</t>
+  </si>
+  <si>
+    <t>Scenario 8 -  The system must include a smartSurvey with question of Entity type</t>
+  </si>
+  <si>
+    <t>what is the weigth (ton)? (number)</t>
+  </si>
+  <si>
+    <t>CW9</t>
+  </si>
+  <si>
+    <t>TEST008</t>
+  </si>
+  <si>
+    <t>TEST009</t>
+  </si>
+  <si>
+    <t>what is the content? (longText)</t>
+  </si>
+  <si>
+    <t>Scenario 9 -  The system must include a smartSurvey with question of  Long Text Type</t>
+  </si>
+  <si>
+    <t>smartSurvey successful included in the system (obs: the long text field shows the word "undefined" ) after inclusion.</t>
+  </si>
+  <si>
+    <t>CW10.</t>
+  </si>
+  <si>
+    <t>Scenario 10 -  The system must print the selected smart survey</t>
+  </si>
+  <si>
+    <t>Scenario 11 -  The system must close the selected smart survey</t>
+  </si>
+  <si>
+    <t>CW11.</t>
+  </si>
+  <si>
+    <t>CW12.</t>
+  </si>
+  <si>
+    <t>Scenario 12 -  The system must clone the selected smart survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +250,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -244,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -276,6 +376,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -286,25 +419,13 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -603,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,86 +743,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="8.25" hidden="1" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" hidden="1" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="76.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -726,12 +847,12 @@
         <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -758,12 +879,12 @@
         <v>18</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -790,23 +911,23 @@
         <v>18</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -815,55 +936,55 @@
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>34</v>
+      <c r="J9" s="28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" hidden="1" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="42.75" hidden="1" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -871,55 +992,55 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>37</v>
+      <c r="I12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -927,120 +1048,216 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>40</v>
+      <c r="H15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="9"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customFormat="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="10"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" customFormat="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customFormat="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" customFormat="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="55">
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="A21:A23"/>
@@ -1088,6 +1305,14 @@
     <mergeCell ref="C1:C5"/>
     <mergeCell ref="G1:G5"/>
     <mergeCell ref="H1:H5"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1096,13 +1321,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="3.75" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" ht="75">
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" ht="60">
+      <c r="A8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:H5"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="G1:G5"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
